--- a/biology/Médecine/Daptomycine/Daptomycine.xlsx
+++ b/biology/Médecine/Daptomycine/Daptomycine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La daptomycine est un lipopeptide antibiotique[2]. Elle n'est active que contre les organismes gram-positifs. Il s'agit d'un véritable antibiotique en ce sens que c'est un composé naturel présent dans le sol saprotrophe, Streptomyces roseosporus.
+La daptomycine est un lipopeptide antibiotique. Elle n'est active que contre les organismes gram-positifs. Il s'agit d'un véritable antibiotique en ce sens que c'est un composé naturel présent dans le sol saprotrophe, Streptomyces roseosporus.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le composé a d'abord été appelé LY146032 et a été découvert par la firme Eli Lilly dans les années 1980 (Counter 1984) dans le cadre de leur recherche en matière de nouveaux médicaments. Les droits afférents à LY146032 ont été achetés en 1997 par Cubist Pharmaceuticals. La daptomycine fut commercialisée d'abord aux États-Unis, en novembre 2003, puis en Europe, en janvier 2006, toujours sous le nom de Cubicin.
 </t>
@@ -543,7 +557,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Liaison à 90 % aux protéines plasmatiques, diffusion principalement dans les tissus fortement vascularisés, passage de la barrière hémato-encéphalique, métabolisation très faible, élimination essentiellement urinaire (78 %), passage trans-placentaire, passage dans le lait maternel non étudié.
 La daptomycine est seulement active contre les bactéries Gram positifs. Le mécanisme précis de son action est toujours (13 nov 2005）inconnu. Il est connu que la daptomycine nécessite des ions calcium pour fonctionner, elles se lient à la membrane des bactéries et entraînent une dépolarisation rapide, la perte du potentiel de membrane mène à une inhibition de la synthèse d'ADN d'ARN et de protéine de la bactérie, ce qui conduit à sa destruction. L’activité bactéricide de la daptomycine est concentration dépendante. De par son nouveau mécanisme d'action, la daptomycine est sans doute active à l'encontre des organismes résistant à la méticilline, la vancomycine et le linézolide.
@@ -579,10 +595,12 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son indication principale est l'infection à staphylocoque doré.
-Il est utilisé dans les infections à entérocoques[3], même si des cas d'émergence de résistances ont été décrites sur des souches déjà résistantes à la vancomycine[4],[5].
+Il est utilisé dans les infections à entérocoques, même si des cas d'émergence de résistances ont été décrites sur des souches déjà résistantes à la vancomycine,.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Posologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">6 mg/kg/j en i.v. en moyenne
 </t>
@@ -642,10 +662,12 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Toxicité musculaire
-La daptomycine peut causer une pneumonie éosinophile aiguë, qui donne des images en verres dépolies au scanner thoracique similaires a c'elle de l'infection Covid19[6].
+La daptomycine peut causer une pneumonie éosinophile aiguë, qui donne des images en verres dépolies au scanner thoracique similaires a c'elle de l'infection Covid19.
 </t>
         </is>
       </c>
